--- a/biology/Médecine/Paul_Luther_(médecin)/Paul_Luther_(médecin).xlsx
+++ b/biology/Médecine/Paul_Luther_(médecin)/Paul_Luther_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul_Luther_(m%C3%A9decin)</t>
+          <t>Paul_Luther_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Luther, né le 28 janvier 1533 à Wittemberg et mort le 8 mars 1593 à Leipzig[1], est un médecin, chimiste médical et alchimiste allemand[2]. Il est le troisième fils du réformateur protestant Martin Luther et fut successivement médecin de Jean-Frédéric II de Saxe, Joachim II Hector de Brandebourg, Auguste Ier de Saxe et son successeur Christian Ier de Saxe. Il enseigne l'alchimie à Anne de Danemark.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Luther, né le 28 janvier 1533 à Wittemberg et mort le 8 mars 1593 à Leipzig, est un médecin, chimiste médical et alchimiste allemand. Il est le troisième fils du réformateur protestant Martin Luther et fut successivement médecin de Jean-Frédéric II de Saxe, Joachim II Hector de Brandebourg, Auguste Ier de Saxe et son successeur Christian Ier de Saxe. Il enseigne l'alchimie à Anne de Danemark.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul_Luther_(m%C3%A9decin)</t>
+          <t>Paul_Luther_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Wittemberg, troisième fils de Martin Luther par son mariage avec Catherine de Bore, Paul Luther est un enfant énergique dont son père dit : « Il est destiné à lutter contre les Turcs ». L'éducation du garçon commence par l'étude du grec et du latin que lui enseignent Philippe Mélanchthon et Veit Winsheim[3].
-En 1546, Paul a treize ans quand son père meurt, laissant la famille dans une situation financière difficile. Au déclenchement de la Guerre de Smalkalde, ils s'enfuient à Magdebourg et en 1547 à Brunswick. En juillet, à la fin de la guerre, ils peuvent retourner à Wittemberg, bien que dans une relative pauvreté. Sur les conseils de Mélanchthon, Luther part pour l'Université de Wittemberg pour y étudier la médecine[3].
-En septembre 1552, une épidémie de peste bubonique oblige la famille Luther à s'enfuir à Torgau, voyageant dans une charrette qui se renverse près des portes de la ville, blessant gravement la mère de Luther. Elle y meurt le 20 décembre 1552. Pendant son séjour à Torgau, le 5 février 1553, à l'âge de vingt ans, Paul Luther épouse Anna, fille du traducteur Veit Warbeck (1490-1534)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Wittemberg, troisième fils de Martin Luther par son mariage avec Catherine de Bore, Paul Luther est un enfant énergique dont son père dit : « Il est destiné à lutter contre les Turcs ». L'éducation du garçon commence par l'étude du grec et du latin que lui enseignent Philippe Mélanchthon et Veit Winsheim.
+En 1546, Paul a treize ans quand son père meurt, laissant la famille dans une situation financière difficile. Au déclenchement de la Guerre de Smalkalde, ils s'enfuient à Magdebourg et en 1547 à Brunswick. En juillet, à la fin de la guerre, ils peuvent retourner à Wittemberg, bien que dans une relative pauvreté. Sur les conseils de Mélanchthon, Luther part pour l'Université de Wittemberg pour y étudier la médecine.
+En septembre 1552, une épidémie de peste bubonique oblige la famille Luther à s'enfuir à Torgau, voyageant dans une charrette qui se renverse près des portes de la ville, blessant gravement la mère de Luther. Elle y meurt le 20 décembre 1552. Pendant son séjour à Torgau, le 5 février 1553, à l'âge de vingt ans, Paul Luther épouse Anna, fille du traducteur Veit Warbeck (1490-1534).
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paul_Luther_(m%C3%A9decin)</t>
+          <t>Paul_Luther_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,15 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De retour à Wittenberg, Paul Luther termine ses études et, le 29 juillet 1557, obtient son diplôme de docteur en médecine[3].
-Il refuse une offre d'enseigner à l'Université d'Iéna en raison de ses objections à la théologie de Victorinus Strigel, un universitaire de premier plan. Sur le plan religieux, Paul Luther est un luthérien enthousiaste qui défend avec zèle les enseignements de son père[3].
-Il devint le médecin personnel de Jean-Frédéric II, duc de Saxe, demeurant à Gotha jusqu'à la reddition de la ville le 13 avril 1567, à Auguste, électeur de Saxe. Il exerce alors à la cour de Joachim II Hector, électeur de Brandebourg jusqu'à sa mort le 3 janvier 1571, et est par la suite médecin d'Auguste, électeur de Saxe, et de son successeur, Christian Ier, à Dresde. En 1590, il se retire et s'installe à Leipzig[3].
-Il se distingue aussi comme chimiste [3] et développe plusieurs médicaments, tels que Unguentum ex nitro, Magistrum perlarum, Magistrum collorum et Aurum potabile, produits par les pharmacies de Saxe. Il s'intéresse à l'alchimie, dont le but ultime est la production d' or, et passe pour être l'instructeur le plus important de l'alchimiste amateur Anne de Danemark, électrice de Saxe[2].
-Il meurt à Leipzig le 8 mars 1593. Son oraison funèbre est prononcée par son ami Matthias Dresser[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De retour à Wittenberg, Paul Luther termine ses études et, le 29 juillet 1557, obtient son diplôme de docteur en médecine.
+Il refuse une offre d'enseigner à l'Université d'Iéna en raison de ses objections à la théologie de Victorinus Strigel, un universitaire de premier plan. Sur le plan religieux, Paul Luther est un luthérien enthousiaste qui défend avec zèle les enseignements de son père.
+Il devint le médecin personnel de Jean-Frédéric II, duc de Saxe, demeurant à Gotha jusqu'à la reddition de la ville le 13 avril 1567, à Auguste, électeur de Saxe. Il exerce alors à la cour de Joachim II Hector, électeur de Brandebourg jusqu'à sa mort le 3 janvier 1571, et est par la suite médecin d'Auguste, électeur de Saxe, et de son successeur, Christian Ier, à Dresde. En 1590, il se retire et s'installe à Leipzig.
+Il se distingue aussi comme chimiste  et développe plusieurs médicaments, tels que Unguentum ex nitro, Magistrum perlarum, Magistrum collorum et Aurum potabile, produits par les pharmacies de Saxe. Il s'intéresse à l'alchimie, dont le but ultime est la production d' or, et passe pour être l'instructeur le plus important de l'alchimiste amateur Anne de Danemark, électrice de Saxe.
+Il meurt à Leipzig le 8 mars 1593. Son oraison funèbre est prononcée par son ami Matthias Dresser.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Paul_Luther_(m%C3%A9decin)</t>
+          <t>Paul_Luther_(médecin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,12 +595,14 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Alors qu'il est encore étudiant en médecine à Wittenberg, il épouse Anna Warbeck[4]. Ils sont mariés pendant trente-trois ans, jusqu'à la mort d'Anna à Dresde le 15 mai 1586[6]. De ce mariage naquirent six enfants [4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alors qu'il est encore étudiant en médecine à Wittenberg, il épouse Anna Warbeck. Ils sont mariés pendant trente-trois ans, jusqu'à la mort d'Anna à Dresde le 15 mai 1586. De ce mariage naquirent six enfants  :
 Paul Luther (1553-1558)
-Margarethe Luther (1555-1597), qui épouse Simon Gottsteig[4]
-Johannes Ernst Luther (1560-1637), devenu chanoine de Zeitz. Grâce à lui, la lignée masculine de la famille Luther se poursuit jusqu'en 1759[4].
+Margarethe Luther (1555-1597), qui épouse Simon Gottsteig
+Johannes Ernst Luther (1560-1637), devenu chanoine de Zeitz. Grâce à lui, la lignée masculine de la famille Luther se poursuit jusqu'en 1759.
 Johannes Friedrich Luther (1562-1599)
 Anna Luther (1564-1596), mariée à Oberschaar avec Nicolaus Freiherr Marschall von Bieberstein
 Johannes Joachim Luther (1569-1600)</t>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Paul_Luther_(m%C3%A9decin)</t>
+          <t>Paul_Luther_(médecin)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,9 +633,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Oratio de arte medica et cura tuendae valetudinis (publié à titre posthume à Breslau, 1598)[7]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Oratio de arte medica et cura tuendae valetudinis (publié à titre posthume à Breslau, 1598)</t>
         </is>
       </c>
     </row>
